--- a/src/data/news.xlsx
+++ b/src/data/news.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\code\university-chat-app\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58BD8B-499E-42EC-B79A-D072999DB80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -25,114 +31,144 @@
     <t>title</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>実績</t>
+  </si>
+  <si>
+    <t>告知</t>
+  </si>
+  <si>
+    <t>レポート</t>
+  </si>
+  <si>
+    <t>オープンキャンパスが盛況</t>
+  </si>
+  <si>
+    <t>看護学部の国家試験、なんと5年連続合格率100%や！よう頑張っとる！</t>
+  </si>
+  <si>
+    <t>今週末から入試説明会始まるで。予約はWebからや、忘れんようにな！</t>
+  </si>
+  <si>
+    <t>先週のオープンキャンパス、過去最高の参加者やったわ。高校生の熱気がすごかった！</t>
+  </si>
+  <si>
+    <t>高校生</t>
+  </si>
+  <si>
+    <t>全員</t>
+  </si>
+  <si>
+    <t>文化祭</t>
+  </si>
+  <si>
+    <t>看護学部</t>
+  </si>
+  <si>
+    <t>入試</t>
+  </si>
+  <si>
+    <t>オープンキャンパス</t>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>看護学部の国家試験合格率100%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025年文化祭開催！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入試説明会スタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10月20日に文化祭やるで！模擬店やライブ盛りだくさんやから、来てな！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body_past</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入試説明会始まってるで、予約はWebからや、検討してな！</t>
+    <rPh sb="22" eb="24">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文化祭やってるで、模擬店やライブ盛りだくさんやから、来てな！</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>イベント</t>
-  </si>
-  <si>
-    <t>実績</t>
-  </si>
-  <si>
-    <t>告知</t>
-  </si>
-  <si>
-    <t>レポート</t>
-  </si>
-  <si>
-    <t>2025年文化祭開催！</t>
-  </si>
-  <si>
-    <t>看護学部の国家試験合格率100%</t>
-  </si>
-  <si>
-    <t>入試説明会スタート</t>
-  </si>
-  <si>
-    <t>オープンキャンパスが盛況</t>
-  </si>
-  <si>
-    <t>10月20日に文化祭やるで！模擬店やライブ盛りだくさんやから、来てな！</t>
-  </si>
-  <si>
-    <t>看護学部の国家試験、なんと5年連続合格率100%や！よう頑張っとる！</t>
-  </si>
-  <si>
-    <t>今週末から入試説明会始まるで。予約はWebからや、忘れんようにな！</t>
-  </si>
-  <si>
-    <t>先週のオープンキャンパス、過去最高の参加者やったわ。高校生の熱気がすごかった！</t>
-  </si>
-  <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2025-09-10</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>高校生</t>
-  </si>
-  <si>
-    <t>全員</t>
-  </si>
-  <si>
-    <t>on_start</t>
-  </si>
-  <si>
-    <t>after_3turns</t>
-  </si>
-  <si>
-    <t>文化祭</t>
-  </si>
-  <si>
-    <t>看護学部</t>
-  </si>
-  <si>
-    <t>入試</t>
-  </si>
-  <si>
-    <t>オープンキャンパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>expiryDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>看護学部の国家試験、今年は合格率９０％でちょっと下がったけど、がんばるで。</t>
+    <rPh sb="10" eb="12">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ゴウカクリツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,8 +176,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,24 +223,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +287,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -269,6 +321,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,14 +532,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,126 +556,152 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45778</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45839</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45839</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
+        <v>46022</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
+      <c r="J5" s="2">
+        <v>46022</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>